--- a/data/成绩报表模板.xlsx
+++ b/data/成绩报表模板.xlsx
@@ -14,29 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客观分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试时间：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -460,13 +468,13 @@
     <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -475,19 +483,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/成绩报表模板.xlsx
+++ b/data/成绩报表模板.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="成绩表" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -506,11 +506,294 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <f>SUM(C4:D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E50" si="0">SUM(C5:D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>